--- a/Bills/2023/3/ABHIRATH ENTERPRISES - NH 8 DEFENCE.xlsx
+++ b/Bills/2023/3/ABHIRATH ENTERPRISES - NH 8 DEFENCE.xlsx
@@ -2385,25 +2385,25 @@
         </is>
       </c>
       <c r="C12" s="11" t="n">
-        <v>932</v>
+        <v>0</v>
       </c>
       <c r="D12" s="12" t="n">
-        <v>929</v>
+        <v>0</v>
       </c>
       <c r="E12" s="12" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="F12" s="12" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G12" s="12" t="n">
-        <v>-2598</v>
+        <v>0</v>
       </c>
       <c r="H12" s="12" t="n">
-        <v>1070</v>
+        <v>0</v>
       </c>
       <c r="I12" s="150" t="n">
-        <v>932936</v>
+        <v>0</v>
       </c>
       <c r="J12" s="168" t="n"/>
       <c r="K12" s="166" t="n"/>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="C13" s="11" t="n">
-        <v>932</v>
+        <v>0</v>
       </c>
       <c r="D13" s="12" t="n">
-        <v>929</v>
+        <v>0</v>
       </c>
       <c r="E13" s="12" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="F13" s="12" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G13" s="12" t="n">
-        <v>-65</v>
+        <v>0</v>
       </c>
       <c r="H13" s="12" t="n">
-        <v>1070</v>
+        <v>0</v>
       </c>
       <c r="I13" s="150" t="n">
         <v>0</v>
@@ -2459,13 +2459,13 @@
         </is>
       </c>
       <c r="C14" s="11" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="D14" s="12" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="E14" s="12" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F14" s="12" t="n">
         <v>0</v>
@@ -2474,10 +2474,10 @@
         <v>0</v>
       </c>
       <c r="H14" s="12" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="I14" s="150" t="n">
-        <v>67873</v>
+        <v>0</v>
       </c>
       <c r="J14" s="168" t="n"/>
       <c r="K14" s="166" t="n"/>
@@ -2496,13 +2496,13 @@
         </is>
       </c>
       <c r="C15" s="11" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="D15" s="12" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="E15" s="12" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F15" s="12" t="n">
         <v>0</v>
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="12" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="I15" s="150" t="n">
         <v>0</v>
@@ -2533,13 +2533,13 @@
         </is>
       </c>
       <c r="C16" s="11" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="D16" s="12" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="E16" s="12" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F16" s="12" t="n">
         <v>0</v>
@@ -2548,10 +2548,10 @@
         <v>0</v>
       </c>
       <c r="H16" s="12" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="I16" s="150" t="n">
-        <v>46821</v>
+        <v>0</v>
       </c>
       <c r="J16" s="168" t="n"/>
       <c r="K16" s="166" t="n"/>
@@ -2570,13 +2570,13 @@
         </is>
       </c>
       <c r="C17" s="11" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="D17" s="12" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="E17" s="12" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F17" s="12" t="n">
         <v>0</v>
@@ -2585,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="12" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="I17" s="150" t="n">
         <v>0</v>
@@ -2607,10 +2607,10 @@
         </is>
       </c>
       <c r="C18" s="11" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D18" s="12" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E18" s="12" t="n">
         <v>0</v>
@@ -2622,10 +2622,10 @@
         <v>0</v>
       </c>
       <c r="H18" s="12" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I18" s="150" t="n">
-        <v>44717</v>
+        <v>0</v>
       </c>
       <c r="J18" s="168" t="n"/>
       <c r="K18" s="166" t="n"/>
@@ -2644,10 +2644,10 @@
         </is>
       </c>
       <c r="C19" s="11" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D19" s="12" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E19" s="12" t="n">
         <v>0</v>
@@ -2659,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="12" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I19" s="150" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         </is>
       </c>
       <c r="C20" s="11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D20" s="12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E20" s="12" t="n">
         <v>0</v>
@@ -2696,10 +2696,10 @@
         <v>0</v>
       </c>
       <c r="H20" s="12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I20" s="150" t="n">
-        <v>3946</v>
+        <v>0</v>
       </c>
       <c r="J20" s="168" t="n"/>
       <c r="K20" s="166" t="n"/>
@@ -2718,10 +2718,10 @@
         </is>
       </c>
       <c r="C21" s="11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D21" s="12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E21" s="12" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I21" s="150" t="n">
         <v>0</v>
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="C22" s="11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="12" t="n">
         <v>0</v>
@@ -2770,10 +2770,10 @@
         <v>0</v>
       </c>
       <c r="H22" s="12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I22" s="150" t="n">
-        <v>3405</v>
+        <v>0</v>
       </c>
       <c r="J22" s="168" t="n"/>
       <c r="K22" s="166" t="n"/>
@@ -2792,10 +2792,10 @@
         </is>
       </c>
       <c r="C23" s="11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="12" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I23" s="150" t="n">
         <v>0</v>
@@ -3054,22 +3054,22 @@
         <v>0</v>
       </c>
       <c r="D30" s="12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E30" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F30" s="12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G30" s="12" t="n">
-        <v>1481</v>
+        <v>0</v>
       </c>
       <c r="H30" s="12" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I30" s="150" t="n">
-        <v>22359</v>
+        <v>0</v>
       </c>
       <c r="J30" s="168" t="n"/>
       <c r="K30" s="166" t="n"/>
@@ -3091,19 +3091,19 @@
         <v>0</v>
       </c>
       <c r="D31" s="12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E31" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F31" s="12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G31" s="12" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H31" s="12" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I31" s="150" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         </is>
       </c>
       <c r="C34" s="15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D34" s="12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E34" s="12" t="n">
         <v>0</v>
@@ -3236,10 +3236,10 @@
         </is>
       </c>
       <c r="C35" s="15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D35" s="12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E35" s="12" t="n">
         <v>0</v>
@@ -3273,25 +3273,25 @@
         </is>
       </c>
       <c r="C36" s="15" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D36" s="12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E36" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F36" s="12" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="G36" s="12" t="n">
-        <v>-2961</v>
+        <v>0</v>
       </c>
       <c r="H36" s="12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" s="150" t="n">
-        <v>2236</v>
+        <v>0</v>
       </c>
       <c r="J36" s="168" t="n"/>
       <c r="K36" s="166" t="n"/>
@@ -3310,22 +3310,22 @@
         </is>
       </c>
       <c r="C37" s="15" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D37" s="12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E37" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F37" s="12" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="G37" s="12" t="n">
-        <v>-74</v>
+        <v>0</v>
       </c>
       <c r="H37" s="12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" s="150" t="n">
         <v>0</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="C40" s="15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" s="12" t="n">
         <v>0</v>
@@ -3458,10 +3458,10 @@
         </is>
       </c>
       <c r="C41" s="15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" s="12" t="n">
         <v>0</v>
